--- a/static_bids.xlsx
+++ b/static_bids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw.sharepoint.com/sites/IBEAM/Shared Documents/General/Group I-BEaM/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{0636FE0E-81EA-43A4-A63A-781B580D45DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D7FCDE-960C-4BE0-B2C0-13971FC4EA07}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{0636FE0E-81EA-43A4-A63A-781B580D45DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC294E66-7AC9-4549-9EF6-4C5666C9CF97}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{1E3E8412-85A9-4946-A738-192A681C488A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{1E3E8412-85A9-4946-A738-192A681C488A}"/>
   </bookViews>
   <sheets>
     <sheet name="nsw" sheetId="1" r:id="rId1"/>
@@ -209,193 +209,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>77432.196666665404</c:v>
+                  <c:v>113776.139999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74265.456666665094</c:v>
+                  <c:v>112023.489166666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71910.714166664795</c:v>
+                  <c:v>111902.64166666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70732.465000002703</c:v>
+                  <c:v>109468.25666666499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66199.480833333</c:v>
+                  <c:v>109220.209999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64623.4416666693</c:v>
+                  <c:v>108755.091666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64279.281666666597</c:v>
+                  <c:v>108327.479999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64274.7183333332</c:v>
+                  <c:v>106302.25749999699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63465.739166667598</c:v>
+                  <c:v>103908.260000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63049.144999999902</c:v>
+                  <c:v>101546.943333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62325.945833334503</c:v>
+                  <c:v>89960.740833333693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61919.172499999899</c:v>
+                  <c:v>82864.355000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61612.338333333297</c:v>
+                  <c:v>71738.693333333198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61057.391666666597</c:v>
+                  <c:v>70480.134166666598</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60996.7691666666</c:v>
+                  <c:v>69106.499166666603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60810.984166666603</c:v>
+                  <c:v>66764.483333333206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60633.427499999903</c:v>
+                  <c:v>65514.839999999902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60111.744999999901</c:v>
+                  <c:v>65514.839999999902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59957.229999999901</c:v>
+                  <c:v>65514.839999999902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59142.811666666603</c:v>
+                  <c:v>64996.102500000998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57077.871666666601</c:v>
+                  <c:v>64564.607500000398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>57053.879999999903</c:v>
+                  <c:v>63823.453333333302</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>63794.8808333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63541.5133333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62857.128333333298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62217.286666666601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61911.238333333204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60875.0249999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60267.588333333297</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60267.588333333297</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59471.530000000297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57629.961666667397</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56373.401666666599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56307.402499999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56269.345833333296</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>56132.400833333297</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>55784.169166666601</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>55656.614166666601</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>55497.179999999898</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>55187.394166668098</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="39">
                   <c:v>54903.094166666597</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="40">
                   <c:v>54565.865833333301</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>54009.981666666601</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>53292.795833333301</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>52937.663333333301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51744.779166666201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51473.781666667201</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
+                  <c:v>50156.662499999897</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50120.044166666601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50101.295833333301</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>49996.869166666598</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="46">
                   <c:v>49809.934166666601</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>49628.807499999901</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>49148.201666666602</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>48971.862499999901</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="49">
                   <c:v>48894.497499999903</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>48870.287499999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>48100.585833333302</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>48055.522499999897</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>47859.371666666601</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="51">
+                  <c:v>47936.559999999903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47901.302499999903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47880.852499999899</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>47783.5058333333</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="55">
                   <c:v>47611.7633333333</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="56">
                   <c:v>47441.416666666599</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>47238.731666666601</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
+                  <c:v>47050.764999999898</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>46989.553333333301</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>46751.419166666601</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>46735.849166666601</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>46386.746666666601</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
+                  <c:v>46378.206666666701</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>45894.0024999999</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>45640.629999999903</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42498.660833333597</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42396.262500000303</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41487.215833333299</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>39267.113333333298</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>38339.870000000097</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36173.335833333404</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>34345.681666666598</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33905.9474999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>31792.782500000001</c:v>
-                </c:pt>
                 <c:pt idx="62">
-                  <c:v>28192.9624999999</c:v>
+                  <c:v>43557.567500000201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,193 +407,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,193 +874,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>91624.383333333506</c:v>
+                  <c:v>132554.94333333301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91563.7108333332</c:v>
+                  <c:v>132412.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89653.134999999893</c:v>
+                  <c:v>126890.520833314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87625.871666666702</c:v>
+                  <c:v>124102.73833331501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87110.861666666504</c:v>
+                  <c:v>123708.709166666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87006.733333333206</c:v>
+                  <c:v>120620.17750000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83288.647499983606</c:v>
+                  <c:v>115411.14583331499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81461.1933333333</c:v>
+                  <c:v>114694.740833334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80478.273333318997</c:v>
+                  <c:v>111117.044166666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79351.945833333302</c:v>
+                  <c:v>110718.415000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77252.429999999993</c:v>
+                  <c:v>110326.202499999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75919.262499999793</c:v>
+                  <c:v>110191.304166666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75900.041666666497</c:v>
+                  <c:v>108494.535</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75280.053333333097</c:v>
+                  <c:v>107721.052499999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73346.315000000002</c:v>
+                  <c:v>107641.472499999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73226.737500000003</c:v>
+                  <c:v>106673.664999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73226.565833333298</c:v>
+                  <c:v>105697.61333333301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72975.930833333303</c:v>
+                  <c:v>104231.54916666599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72865.67</c:v>
+                  <c:v>102648.806666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72247.088333333304</c:v>
+                  <c:v>100268.17833333201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72059.515833323094</c:v>
+                  <c:v>98713.850833333199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72004.311666666603</c:v>
+                  <c:v>98679.365833333199</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71935.522500000006</c:v>
+                  <c:v>96315.108333333294</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71024.616666669899</c:v>
+                  <c:v>96258.736666666606</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69613.705000000002</c:v>
+                  <c:v>96236.822499999893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68634.570000000007</c:v>
+                  <c:v>96218.704166666503</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68600.289166666698</c:v>
+                  <c:v>96031.879166666593</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68554.240000000005</c:v>
+                  <c:v>95666.470833333195</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68394.826666666602</c:v>
+                  <c:v>94828.092499999897</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68368.0566666667</c:v>
+                  <c:v>93808.129166666593</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68011.067499999801</c:v>
+                  <c:v>93648.324999999895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67912.581666666694</c:v>
+                  <c:v>93599.349166666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67762.009166666598</c:v>
+                  <c:v>93506.276666666599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67404.7049999999</c:v>
+                  <c:v>92739.440833333196</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>66293.47</c:v>
+                  <c:v>92481.244999999893</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66251.652500000695</c:v>
+                  <c:v>91384.473333332993</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66125.053333333301</c:v>
+                  <c:v>90042.525833333304</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>66052.351666666698</c:v>
+                  <c:v>89434.843333333294</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65934.666666666701</c:v>
+                  <c:v>89066.474166666507</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65627.000833333295</c:v>
+                  <c:v>88986.894166666505</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65262.654999999999</c:v>
+                  <c:v>86077.313333333295</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63982.444999999898</c:v>
+                  <c:v>85741.005833333198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63237.418333333197</c:v>
+                  <c:v>85167.469999999899</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61801.573333333297</c:v>
+                  <c:v>84936.834166666595</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61780.002500000002</c:v>
+                  <c:v>84745.544166666601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61348.2108333332</c:v>
+                  <c:v>84655.152499999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60900.525833333297</c:v>
+                  <c:v>84466.000833333295</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60348.942499999997</c:v>
+                  <c:v>84118.325833333307</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>60225.141666666699</c:v>
+                  <c:v>84115.159166666606</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59353.115833333199</c:v>
+                  <c:v>83914.039166666596</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59089.0816666666</c:v>
+                  <c:v>83685.529999999897</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>58893.784166666599</c:v>
+                  <c:v>83615.923333333296</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58264.1933333333</c:v>
+                  <c:v>83245.727499999906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>58106.698333333297</c:v>
+                  <c:v>82566.936666666501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57661.144999999997</c:v>
+                  <c:v>65765.109166666705</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57608.108333333301</c:v>
+                  <c:v>65599.400833333304</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56879.436666666697</c:v>
+                  <c:v>65524.709166666697</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56725.029166666704</c:v>
+                  <c:v>65407.941666666702</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>56652.878333333298</c:v>
+                  <c:v>65151.012499999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56560.06</c:v>
+                  <c:v>64862.204166666699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56328.597500000003</c:v>
+                  <c:v>63908.616666666698</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56092.170833333301</c:v>
+                  <c:v>63227.691666666702</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>55735.424166666598</c:v>
+                  <c:v>62835.8825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,193 +1072,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,58 +1539,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>35753.195833332298</c:v>
+                  <c:v>46100.4591666657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35303.988333332098</c:v>
+                  <c:v>45856.3458333327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34873.350833332202</c:v>
+                  <c:v>45599.805833332197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34873.350833332202</c:v>
+                  <c:v>45599.805833332197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34841.291666665602</c:v>
+                  <c:v>45567.748333332202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24866.6425000001</c:v>
+                  <c:v>34253.702499999898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23233.2516666667</c:v>
+                  <c:v>32092.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16142.377500000001</c:v>
+                  <c:v>18387.0666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15013.723333333301</c:v>
+                  <c:v>16668.890833333298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14618.885833333299</c:v>
+                  <c:v>15702.032499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14372.0158333333</c:v>
+                  <c:v>15646.871666666601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14148.430833333299</c:v>
+                  <c:v>14382.7925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14116.352500000001</c:v>
+                  <c:v>14369.9608333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14116.352500000001</c:v>
+                  <c:v>14369.9608333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14116.352500000001</c:v>
+                  <c:v>14369.9608333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12648.1674999999</c:v>
+                  <c:v>14216.0841666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11703.032499999899</c:v>
+                  <c:v>13874.612499999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10852.182500000001</c:v>
+                  <c:v>13632.893333333301</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4444.1108333333304</c:v>
@@ -1737,193 +1737,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,85 +2204,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>33249.152499999</c:v>
+                  <c:v>65668.048333332903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33209.7266666668</c:v>
+                  <c:v>64946.105833332702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32290.416666666599</c:v>
+                  <c:v>62907.215833333001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32254.726666666698</c:v>
+                  <c:v>62577.401666668098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31353.965833333001</c:v>
+                  <c:v>61183.935833331598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30838.757499999701</c:v>
+                  <c:v>60742.760000001101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30675.5749999992</c:v>
+                  <c:v>60536.503333334003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30550.550833333298</c:v>
+                  <c:v>60407.255833334399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30482.249166666301</c:v>
+                  <c:v>57664.500833332997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27993.806666666602</c:v>
+                  <c:v>44370.199166666702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27885.5874999999</c:v>
+                  <c:v>44266.765833333302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27672.443333333202</c:v>
+                  <c:v>43887.430833333397</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27594.961666666499</c:v>
+                  <c:v>42065.809166666702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27528.625833333099</c:v>
+                  <c:v>40924.468333333098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27456.021666666598</c:v>
+                  <c:v>40609.933333333203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27258.1891666665</c:v>
+                  <c:v>40600.786666666703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26902.959999999901</c:v>
+                  <c:v>40404.127500000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25084.054166666599</c:v>
+                  <c:v>38969.945833333302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9843.0266666666594</c:v>
+                  <c:v>11204.1483333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9796.1591666666609</c:v>
+                  <c:v>11071.223333333301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9702.3124999999909</c:v>
+                  <c:v>10981.164999999901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9687.2183333333196</c:v>
+                  <c:v>10862.7424999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9527.1416666666591</c:v>
+                  <c:v>10429.129999999899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9155.9241666666603</c:v>
+                  <c:v>9847.3583333333208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8324.9366666666592</c:v>
+                  <c:v>8639.8408333333191</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8252.0974999999908</c:v>
+                  <c:v>8639.8408333333191</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8252.0974999999908</c:v>
+                  <c:v>8639.8408333333191</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7323.1391666666595</c:v>
@@ -2402,193 +2402,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,193 +2869,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>95165.261666667197</c:v>
+                  <c:v>143114.74333333399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94056.003333333603</c:v>
+                  <c:v>142021.93500000099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90976.355000000796</c:v>
+                  <c:v>141858.40666665501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85670.015833332698</c:v>
+                  <c:v>141751.564166667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85519.375833325597</c:v>
+                  <c:v>141206.64083333401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83265.595833333093</c:v>
+                  <c:v>140934.35333333301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82930.516666666706</c:v>
+                  <c:v>140349.01916666701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82348.434999999998</c:v>
+                  <c:v>136273.62166665599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82323.258333333302</c:v>
+                  <c:v>132548.13333332201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81836.063333333295</c:v>
+                  <c:v>129683.38166666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81547.162500000006</c:v>
+                  <c:v>127537.945000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81501.908333333296</c:v>
+                  <c:v>123694.007499999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81471.329166666605</c:v>
+                  <c:v>116305.470833332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81444.502500000104</c:v>
+                  <c:v>115661.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81424.200000000099</c:v>
+                  <c:v>113014.69083333301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81125.94</c:v>
+                  <c:v>108611.346666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81061.530833333396</c:v>
+                  <c:v>105313.42416666599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80530.280833333294</c:v>
+                  <c:v>96276.907499999594</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80225.588333333406</c:v>
+                  <c:v>91519.592500000101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79744.320000000007</c:v>
+                  <c:v>91436.421666666807</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78899.515833333295</c:v>
+                  <c:v>91213.440833333399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78807.182499999995</c:v>
+                  <c:v>91210.153333333394</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78378.695000000007</c:v>
+                  <c:v>90516.490000000107</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78105.950833333307</c:v>
+                  <c:v>89239.533333333398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76930.724999992701</c:v>
+                  <c:v>85511.485000000102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74622.622499999794</c:v>
+                  <c:v>85511.485000000102</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>85511.485000000102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84371.914166666698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84269.722500000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84131.684999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83794.624166666603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82854.651666666701</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81816.156666666604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80024.840833333306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78991.559166666601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78991.559166666601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74665.311666666705</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>74612.639166666704</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>74549.054999999993</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="39">
                   <c:v>74376.940833333298</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
                   <c:v>73944.641666666706</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>73654.680833333303</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>73488.595000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>72594.539999999994</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>72057.545833333294</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>71598.993333333303</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>71258.552499992802</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="44">
                   <c:v>71035.231666666703</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="45">
                   <c:v>68629.114166666695</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="46">
                   <c:v>68592.375833333295</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="47">
                   <c:v>68551.645000000004</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>68525.821666666801</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
                   <c:v>68423.808333333305</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="49">
                   <c:v>68104.42</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
                   <c:v>67763.854999999996</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
                   <c:v>67092.850833333301</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>66736.046666666603</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>66034.184166666601</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
                   <c:v>65419.229999999901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="55">
                   <c:v>65386.004999999997</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="56">
                   <c:v>65345.229166666599</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="57">
                   <c:v>65209.924999999901</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="58">
                   <c:v>64928.695833333302</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="59">
                   <c:v>64602.3999999999</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>64393.157499999303</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>64272.041666666802</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>63983.9566666666</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>63637.485000000001</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>62932.085833333302</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>62932.011666664599</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>53731.323333333203</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>52633.124999999898</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>49019.484166666502</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45721.421666666502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,193 +3067,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6452,7 +6452,7 @@
   <autoFilter ref="A1:E316" xr:uid="{6764035D-7D73-485C-9FB0-61F2FB1A245A}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6475,7 +6475,7 @@
   <autoFilter ref="A1:E316" xr:uid="{0EF59E36-D232-40F6-9DEF-0D6016CF7FEC}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6498,7 +6498,7 @@
   <autoFilter ref="A1:E316" xr:uid="{2D7FBB70-220D-44ED-A02E-1DA0F43FF1FB}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6510,7 +6510,7 @@
     <tableColumn id="2" xr3:uid="{A35855CA-CB37-4FB5-8A15-8E7FA751E16F}" name="Sell"/>
     <tableColumn id="3" xr3:uid="{F303DFA4-D66E-4918-BA8D-863F26B7C112}" name="Buy"/>
     <tableColumn id="4" xr3:uid="{A90880FE-6AA7-4CD2-A9F6-2CC781F9356F}" name="Capacity"/>
-    <tableColumn id="5" xr3:uid="{70487728-1659-48E3-BE7D-1F09EF1C9388}" name="Utilisation" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{70487728-1659-48E3-BE7D-1F09EF1C9388}" name="Utilisation" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6521,7 +6521,7 @@
   <autoFilter ref="A1:E316" xr:uid="{8A010906-042C-4366-B4E1-73E8F1DF7EC6}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6544,7 +6544,7 @@
   <autoFilter ref="A1:E316" xr:uid="{C8930D7E-FA85-497D-BA66-CF3885AD3C31}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6556,7 +6556,7 @@
     <tableColumn id="2" xr3:uid="{566020A6-5770-4709-8BC7-06A8C5729E04}" name="Sell"/>
     <tableColumn id="3" xr3:uid="{A723CA35-D247-4134-934D-8B2C5C495789}" name="Buy"/>
     <tableColumn id="4" xr3:uid="{7604DEC6-ABBE-424E-95B4-E3012F55C476}" name="Capacity"/>
-    <tableColumn id="5" xr3:uid="{FF7D677B-108B-4CCC-A4E8-F9BB87459ADA}" name="Utilisation" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FF7D677B-108B-4CCC-A4E8-F9BB87459ADA}" name="Utilisation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6908,7 +6908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>77432.196666665404</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>9.3264840182648398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>113776.139999993</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>9.5310121765601205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>74265.456666665094</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>9.2903348554033399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>112023.489166666</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0.12878614916286099</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>71910.714166664795</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>9.2199391171993897E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>111902.64166666599</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0.14954337899543299</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>70732.465000002703</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>0.435654490106544</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>109468.25666666499</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>0.240943683409436</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>66199.480833333</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>7.1898782343987805E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>109220.209999999</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.500456621004566</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>64623.4416666693</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.435197869101978</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>108755.091666664</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0.57220319634703198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>64279.281666666597</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>5.3272450532724502E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>108327.479999998</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0.58955479452054704</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>64274.7183333332</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>5.3843226788432199E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>106302.25749999699</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0.58974505327244997</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>63465.739166667598</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0.43407534246575302</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>103908.260000002</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0.58987823439878195</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>63049.144999999902</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>5.1750380517503799E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>101546.943333332</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>5.4166666666666599E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>62325.945833334503</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>4.65753424657534E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>89960.740833333693</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>6.3451293759512903E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>61919.172499999899</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>4.8325722983257203E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>82864.355000001</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>6.8321917808219099E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61612.338333333297</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>2.4733637747336298E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>71738.693333333198</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>8.0669710806697104E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>61057.391666666597</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>4.8896499238964899E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>70480.134166666598</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0.105993150684931</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>60996.7691666666</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>2.4733637747336298E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>69106.499166666603</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0.116457382039573</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>60810.984166666603</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>2.4162861491628601E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>66764.483333333206</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>0.116457382039573</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>60633.427499999903</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>2.5494672754946702E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>65514.839999999902</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0.116457382039573</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>60111.744999999901</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>2.5684931506849301E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>65514.839999999902</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0.116457382039573</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>59957.229999999901</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>2.5684931506849301E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>65514.839999999902</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>59142.811666666603</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>4.6042617960426104E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>64996.102500000998</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>57077.871666666601</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>2.2640791476407898E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>64564.607500000398</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>57053.879999999903</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>2.2450532724505299E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>63823.453333333302</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>56132.400833333297</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>63794.8808333333</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>55784.169166666601</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>63541.5133333333</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>55497.179999999898</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>62857.128333333298</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>55187.394166668098</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>0.39020167427701602</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>62217.286666666601</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>54903.094166666597</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>61911.238333333204</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>5.6316590563165901E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>54565.865833333301</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>60875.0249999999</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>54009.981666666601</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1.21765601217656E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>60267.588333333297</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>53292.795833333301</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>60267.588333333297</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>52937.663333333301</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1.1986301369862999E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>59471.530000000297</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>51744.779166666201</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0.19676560121765599</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>57629.961666667397</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>51473.781666667201</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>3.4722222222222203E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>56373.401666666599</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>49996.869166666598</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>56307.402499999997</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>49809.934166666601</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>56269.345833333296</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>49628.807499999901</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>56132.400833333297</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>2.6065449010654398E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>49148.201666666602</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>55784.169166666601</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>48971.862499999901</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>8.1811263318112598E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>55656.614166666601</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>48894.497499999903</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>55497.179999999898</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>48870.287499999999</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>2.0357686453576799E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>54903.094166666597</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>48100.585833333302</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>4.1666666666666597E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>54565.865833333301</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>48055.522499999897</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>53292.795833333301</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>47859.371666666601</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>7.9908675799086697E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>50156.662499999897</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>47783.5058333333</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>50120.044166666601</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>47611.7633333333</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>50101.295833333301</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>47441.416666666599</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>49996.869166666598</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>47238.731666666601</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>3.9193302891932999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>49809.934166666601</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>46989.553333333301</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>49628.807499999901</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>46751.419166666601</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>7.6103500761035003E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>49148.201666666602</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>46735.849166666601</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>48894.497499999903</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>46386.746666666601</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>1.08447488584474E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>48055.522499999897</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>45894.0024999999</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>47936.559999999903</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>45640.629999999903</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>7.4200913242009102E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>47901.302499999903</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>42498.660833333597</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>2.6826484018264801E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>47880.852499999899</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>8.3713850837138499E-4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>42396.262500000303</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>6.9254185692541798E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>47783.5058333333</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>41487.215833333299</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>7.03957382039573E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>47611.7633333333</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>39267.113333333298</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>6.4687975646879705E-4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>47441.416666666599</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>38339.870000000097</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>2.4143835616438299E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>47050.764999999898</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>36173.335833333404</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>4.8249619482496099E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>46989.553333333301</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>34345.681666666598</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>4.3207762557077603E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>46735.849166666601</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>33905.9474999999</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>3.3675799086757899E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>46378.206666666701</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>31792.782500000001</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1.86453576864535E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>45894.0024999999</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>7.8006088280060796E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>28192.9624999999</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>3.2334474885844698E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>43557.567500000201</v>
       </c>
@@ -12276,7 +12276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D07813-30FE-4702-A913-0C2D17928BE7}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -12303,7 +12303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>91624.383333333506</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0.123040334855403</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>132554.94333333301</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>0.25760083713850801</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>91563.7108333332</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>2.6636225266362199E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>132412.47</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0.29516742770167398</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>89653.134999999893</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>2.5684931506849301E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>126890.520833314</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>0.31737062404870597</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>87625.871666666702</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>0.12265981735159801</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>124102.73833331501</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0.355688736681887</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>87110.861666666504</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>3.4627092846270901E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>123708.709166666</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>0.43854642313546399</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>87006.733333333206</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>3.4436834094368298E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>120620.17750000001</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>0.490429984779299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>83288.647499983606</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>0.37924277016742702</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>115411.14583331499</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>0.52267884322678804</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>81461.1933333333</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>1.6171993911719899E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>114694.740833334</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>0.52383942161339403</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>80478.273333318997</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>0.37890030441400302</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>111117.044166666</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>0.52395357686453503</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>79351.945833333302</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1.5601217656012101E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>110718.415000001</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>9.5072298325722907E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>77252.429999999993</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>2.1879756468797498E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>110326.202499999</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0.102168949771689</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>75919.262499999793</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>9.2846270928462708E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>110191.304166666</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>0.105688736681887</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>75900.041666666497</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>9.2275494672754907E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>108494.535</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>0.111149162861491</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>75280.053333333097</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>0.120528919330289</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>107721.052499999</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>0.123649162861491</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>73346.315000000002</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>2.0357686453576799E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>107641.472499999</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>0.154813546423135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>73226.737500000003</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>1.9977168949771602E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>106673.664999998</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>0.16211948249619401</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>73226.565833333298</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>2.01674277016742E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>105697.61333333301</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>0.162385844748858</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>72975.930833333303</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1.9977168949771602E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>104231.54916666599</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0.162385844748858</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>72865.67</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>2.0357686453576799E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>102648.806666666</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>72247.088333333304</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>2.0357686453576799E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>100268.17833333201</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>72059.515833323094</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>0.37633181126331799</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>98713.850833333199</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>72004.311666666603</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>3.0060882800608799E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>98679.365833333199</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>71935.522500000006</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>7.9356925418569202E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>96315.108333333294</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>71024.616666669899</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>0.31225266362252602</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>96258.736666666606</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>69613.705000000002</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>1.3508371385083701E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>96236.822499999893</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>68634.570000000007</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>2.720700152207E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>96218.704166666503</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>68600.289166666698</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>2.7587519025875102E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>96031.879166666593</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>1.16438356164383E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>68554.240000000005</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>2.7397260273972599E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>95666.470833333195</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>68394.826666666602</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>2.85388127853881E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>94828.092499999897</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>68368.0566666667</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>2.720700152207E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>93808.129166666593</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>68011.067499999801</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>4.8687214611872101E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>93648.324999999895</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>67912.581666666694</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>2.7587519025875102E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>93599.349166666594</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>67762.009166666598</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>7.6484018264840097E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>93506.276666666599</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>67404.7049999999</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>8.5045662100456595E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>92739.440833333196</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>66293.47</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>92481.244999999893</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>66251.652500000695</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>0.15294901065448999</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>91384.473333332993</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>4.3378995433789903E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>66125.053333333301</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>90042.525833333304</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>66052.351666666698</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>89434.843333333294</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>65934.666666666701</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>89066.474166666507</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>65627.000833333295</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>88986.894166666505</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>65262.654999999999</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>86077.313333333295</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>63982.444999999898</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>3.7671232876712299E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>85741.005833333198</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>63237.418333333197</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>7.5742009132420005E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>85167.469999999899</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>61801.573333333297</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>3.3485540334855401E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>84936.834166666595</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>61780.002500000002</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>1.08447488584474E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>84745.544166666601</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>61348.2108333332</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>6.3261035007610295E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>84655.152499999997</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>60900.525833333297</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>84466.000833333295</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>60348.942499999997</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>3.1716133942161301E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>84118.325833333307</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>60225.141666666699</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>1.04642313546423E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>84115.159166666606</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>59353.115833333199</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>5.9113394216133902E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>83914.039166666596</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>59089.0816666666</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>6.8873668188736597E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>83685.529999999897</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>58893.784166666599</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>2.88051750380517E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>83615.923333333296</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>58264.1933333333</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>6.3165905631658997E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>83245.727499999906</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>58106.698333333297</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>6.1834094368340897E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>82566.936666666501</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1.7694063926940601E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>57661.144999999997</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>6.0121765601217599E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>65765.109166666705</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>57608.108333333301</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>5.8599695585996904E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>65599.400833333304</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>56879.436666666697</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>65524.709166666697</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>56725.029166666704</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>65407.941666666702</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>56652.878333333298</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>65151.012499999997</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>56560.06</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>64862.204166666699</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>56328.597500000003</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>63908.616666666698</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>56092.170833333301</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>9.7031963470319601E-4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>63227.691666666702</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>1.1035007610350001E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>55735.424166666598</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>5.2387747336377397E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>62835.8825</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>35753.195833332298</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>0.21767503805175001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>46100.4591666657</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>3.4836377473363697E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>35303.988333332098</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>0.12538051750380499</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>45856.3458333327</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>4.2798706240486997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>34873.350833332202</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>0.219843987823439</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>45599.805833332197</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>0.12187975646879699</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>34873.350833332202</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>0.219843987823439</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>45599.805833332197</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>0.14834474885844701</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>34841.291666665602</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>0.219843987823439</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>45567.748333332202</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>0.26708523592085198</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>24866.6425000001</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>4.3188736681887302E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>34253.702499999898</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>0.291571537290715</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>23233.2516666667</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>3.3561643835616398E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32092.34</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>0.29172374429223702</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>16142.377500000001</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>1.23668188736681E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>18387.0666666666</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0.29172374429223702</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>15013.723333333301</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>2.0110350076103501E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>16668.890833333298</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>0.29172374429223702</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>14618.885833333299</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>8.9611872146118706E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>15702.032499999999</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>1.10159817351598E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>14372.0158333333</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>8.1621004566209999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>15646.871666666601</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>1.10540334855403E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>14148.430833333299</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>1.2861491628614901E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>14382.7925</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>14116.352500000001</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>1.2994672754946699E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>14369.9608333333</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>14116.352500000001</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>1.2994672754946699E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>14369.9608333333</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>14116.352500000001</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>1.2994672754946699E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>14369.9608333333</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>12648.1674999999</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>6.3165905631658997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>14216.0841666666</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>11703.032499999899</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>5.3272450532724502E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>13874.612499999999</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>10852.182500000001</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>1.23763318112633E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>13632.893333333301</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>1.3184931506849301E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4444.1108333333304</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4444.1108333333304</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4436.6549999999997</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4436.6549999999997</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4430.915</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4430.915</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4423.9141666666601</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4423.9141666666601</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>4398.7966666666598</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>4398.7966666666598</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>4390.1008333333302</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>4390.1008333333302</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>4335.6266666666597</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>4335.6266666666597</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>4335.6266666666597</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>4335.6266666666597</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>4335.6266666666597</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>4335.6266666666597</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2.09284627092846E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>4297.0074999999997</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>4297.0074999999997</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>4293.5416666666597</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>4293.5416666666597</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>4288.99416666666</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>4288.99416666666</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>4283.9933333333302</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>4283.9933333333302</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>4262.6266666666597</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>4262.6266666666597</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>4255.7416666666604</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>4255.7416666666604</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>4207.6858333333303</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>4207.6858333333303</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>4204.22</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>4204.22</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>4201.2674999999999</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>4201.2674999999999</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>4201.2674999999999</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>4201.2674999999999</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>4201.2674999999999</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>1.7123287671232801E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>4201.2674999999999</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>4199.6724999999997</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>4199.6724999999997</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>4197.6724999999997</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>4197.6724999999997</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>4180.38083333333</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>4180.38083333333</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>4177.7075000000004</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>4177.7075000000004</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>4149.5266666666603</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>4149.5266666666603</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>4149.5266666666603</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>4149.5266666666603</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>4149.5266666666603</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>4149.5266666666603</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>1.5220700152207E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>3040.0233333333299</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>3040.0233333333299</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>3039.3908333333302</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>3039.3908333333302</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>3034.8433333333301</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>3034.8433333333301</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>3032.8433333333301</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>3032.8433333333301</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>3015.5516666666599</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>3015.5516666666599</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>3012.8783333333299</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>3012.8783333333299</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>2984.6975000000002</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>2984.6975000000002</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>2984.6975000000002</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>2984.6975000000002</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>2984.6975000000002</v>
       </c>
@@ -22220,7 +22220,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>2984.6975000000002</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>2588.72416666666</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>2588.72416666666</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>2588.72416666666</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>2588.72416666666</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>2584.8883333333301</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>2584.8883333333301</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>2582.8883333333301</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>2582.8883333333301</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>2572.12</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>2572.12</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>2569.4466666666599</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>2569.4466666666599</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>2541.2658333333302</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>2541.2658333333302</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>2541.2658333333302</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>2541.2658333333302</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>2541.2658333333302</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>3.80517503805175E-5</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>2541.2658333333302</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>33249.152499999</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>0.27901445966514399</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>65668.048333332903</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>0.20227359208523499</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>33209.7266666668</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>5.6259512937595103E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>64946.105833332702</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>0.244063926940639</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>32290.416666666599</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>6.2937595129375898E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>62907.215833333001</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>0.262975646879756</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>32254.726666666698</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>5.1236681887366797E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>62577.401666668098</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>0.28578767123287602</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>31353.965833333001</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>0.13744292237442901</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>61183.935833331598</v>
       </c>
@@ -23518,7 +23518,7 @@
         <v>0.36914003044139998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>30838.757499999701</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>0.31276636225266302</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>60742.760000001101</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>0.41799847792998401</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30675.5749999992</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>0.31219558599695502</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>60536.503333334003</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>0.429832572298325</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>30550.550833333298</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>4.2798706240486997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>60407.255833334399</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>0.430060882800608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>30482.249166666301</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>0.31269025875190198</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>57664.500833332997</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>0.430060882800608</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>27993.806666666602</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>5.1388888888888803E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>44370.199166666702</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>5.5346270928462699E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>27885.5874999999</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>3.2553272450532703E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>44266.765833333302</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>6.1282343987823402E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>27672.443333333202</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>2.4790715372907099E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>43887.430833333397</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>6.3850837138508296E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>27594.961666666499</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>6.7675038051750305E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>42065.809166666702</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>6.7009132420091294E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>27528.625833333099</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>6.7142313546423096E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>40924.468333333098</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>7.8063165905631601E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>27456.021666666598</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>2.31354642313546E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>40609.933333333203</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>8.4893455098934506E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>27258.1891666665</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>6.7598934550989295E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>40600.786666666703</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>8.4893455098934506E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>26902.959999999901</v>
       </c>
@@ -24470,7 +24470,7 @@
         <v>2.17846270928462E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>40404.127500000002</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>8.4893455098934506E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>25084.054166666599</v>
       </c>
@@ -24555,7 +24555,7 @@
         <v>1.88926940639269E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>38969.945833333302</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>8.4893455098934506E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>9843.0266666666594</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>1.3508371385083701E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>11204.1483333333</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9796.1591666666609</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>11071.223333333301</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>9702.3124999999909</v>
       </c>
@@ -24810,7 +24810,7 @@
         <v>1.25570776255707E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>10981.164999999901</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>9687.2183333333196</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>1.2747336377473301E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>10862.7424999999</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>9527.1416666666591</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>1.3698630136986299E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>10429.129999999899</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>9155.9241666666603</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1.4079147640791399E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>9847.3583333333208</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>8324.9366666666592</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>1.50304414003044E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>8639.8408333333191</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>8252.0974999999908</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>8639.8408333333191</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>8252.0974999999908</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8639.8408333333191</v>
       </c>
@@ -25388,7 +25388,7 @@
         <v>1.67427701674277E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>7323.1391666666595</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>7323.1391666666595</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>7300.4441666666598</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>7300.4441666666598</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>7278.6166666666604</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>7278.6166666666604</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>7244.3783333333304</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>7244.3783333333304</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>7097.4216666666598</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>7097.4216666666598</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>6960.0474999999997</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>6960.0474999999997</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>6648.94</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>6648.94</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>6311.0874999999996</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>6311.0874999999996</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>6311.0874999999996</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>6311.0874999999996</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>4.5662100456620998E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>6019.4983333333303</v>
       </c>
@@ -26170,7 +26170,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>6019.4983333333303</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>5997.2075000000004</v>
       </c>
@@ -26255,7 +26255,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>5997.2075000000004</v>
       </c>
@@ -26323,7 +26323,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>5992.3291666666601</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>5992.3291666666601</v>
       </c>
@@ -26408,7 +26408,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>5974.9566666666597</v>
       </c>
@@ -26425,7 +26425,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>5974.9566666666597</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>5895.1225000000004</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>5895.1225000000004</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>5820.6183333333302</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>5820.6183333333302</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>5640.0108333333301</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>5640.0108333333301</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>5375.5450000000001</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>5375.5450000000001</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>4982.3675000000003</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>4982.3675000000003</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>2.4733637747336302E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>3015.03666666666</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>3015.03666666666</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>3015.03666666666</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>3015.03666666666</v>
       </c>
@@ -27088,7 +27088,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>3012.2333333333299</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>3012.2333333333299</v>
       </c>
@@ -27173,7 +27173,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>3012.2333333333299</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>3012.2333333333299</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>3011.2333333333299</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>3011.2333333333299</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>3011.2333333333299</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>3011.2333333333299</v>
       </c>
@@ -27428,7 +27428,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>3006.7799999999902</v>
       </c>
@@ -27445,7 +27445,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>3006.7799999999902</v>
       </c>
@@ -27513,7 +27513,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>3006.7799999999902</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>3006.7799999999902</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>2989.1124999999902</v>
       </c>
@@ -27615,7 +27615,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>2989.1124999999902</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>2989.1124999999902</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>2989.1124999999902</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>2967.5825</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>2967.5825</v>
       </c>
@@ -27853,7 +27853,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>2967.5825</v>
       </c>
@@ -27870,7 +27870,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>2967.5825</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>2918.7974999999901</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>2918.7974999999901</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>2918.7974999999901</v>
       </c>
@@ -28040,7 +28040,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>2918.7974999999901</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>2830.9783333333298</v>
       </c>
@@ -28125,7 +28125,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>2830.9783333333298</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>2830.9783333333298</v>
       </c>
@@ -28210,7 +28210,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>2830.9783333333298</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>2725.9791666666601</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>2725.9791666666601</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>2725.9791666666601</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>5.70776255707762E-5</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>2725.9791666666601</v>
       </c>
@@ -28461,7 +28461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2BAF1A-A607-442B-B579-B4EEE9417936}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -28488,7 +28488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>95165.261666667197</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>9.9315068493150596E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>143114.74333333399</v>
       </c>
@@ -28573,7 +28573,7 @@
         <v>0.18961187214611799</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>94056.003333333603</v>
       </c>
@@ -28590,7 +28590,7 @@
         <v>9.9010654490106501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>142021.93500000099</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>0.21992009132420001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>90976.355000000796</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>9.7907153729071494E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>141858.40666665501</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>0.245129375951293</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>85670.015833332698</v>
       </c>
@@ -28760,7 +28760,7 @@
         <v>8.0365296803652897E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>141751.564166667</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>0.33203006088280002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>85519.375833325597</v>
       </c>
@@ -28845,7 +28845,7 @@
         <v>0.39870624048706199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>141206.64083333401</v>
       </c>
@@ -28913,7 +28913,7 @@
         <v>0.51434550989345496</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>83265.595833333093</v>
       </c>
@@ -28930,7 +28930,7 @@
         <v>5.35388127853881E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>140934.35333333301</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>0.55770547945205395</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>82930.516666666706</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>6.1834094368340897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>140349.01916666701</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>0.56655251141552498</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>82348.434999999998</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>5.6887366818873597E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>136273.62166665599</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>0.56685692541856902</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>82323.258333333302</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>5.6126331811263298E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>132548.13333332201</v>
       </c>
@@ -29253,7 +29253,7 @@
         <v>0.56691400304413997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>81836.063333333295</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>5.7458143074581398E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>129683.38166666</v>
       </c>
@@ -29338,7 +29338,7 @@
         <v>8.7595129375951195E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>81547.162500000006</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>3.1963470319634701E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>127537.945000002</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>9.4767884322678797E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>81501.908333333296</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>3.13926940639269E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>123694.007499999</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>0.100380517503805</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>81471.329166666605</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>3.1582952815829499E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>116305.470833332</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0.112461948249619</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>81444.502500000104</v>
       </c>
@@ -29610,7 +29610,7 @@
         <v>6.7732115677321099E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>115661.62</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>0.119653729071537</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>81424.200000000099</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>6.83028919330289E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>113014.69083333301</v>
       </c>
@@ -29763,7 +29763,7 @@
         <v>0.120471841704718</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>81125.94</v>
       </c>
@@ -29780,7 +29780,7 @@
         <v>3.1582952815829499E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>108611.346666666</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>0.120471841704718</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81061.530833333396</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>6.20243531202435E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>105313.42416666599</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>0.120471841704718</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>80530.280833333294</v>
       </c>
@@ -29950,7 +29950,7 @@
         <v>3.1963470319634701E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>96276.907499999594</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>0.120471841704718</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>80225.588333333406</v>
       </c>
@@ -30035,7 +30035,7 @@
         <v>6.4687975646879701E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91519.592500000101</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>79744.320000000007</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>3.2534246575342401E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>91436.421666666807</v>
       </c>
@@ -30188,7 +30188,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>78899.515833333295</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>3.2914764079147599E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>91213.440833333399</v>
       </c>
@@ -30273,7 +30273,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>78807.182499999995</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>3.2914764079147599E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>91210.153333333394</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>78378.695000000007</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>3.06316590563165E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>90516.490000000107</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>78105.950833333307</v>
       </c>
@@ -30460,7 +30460,7 @@
         <v>5.441400304414E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>89239.533333333398</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>76930.724999992701</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>0.398002283105022</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>85511.485000000102</v>
       </c>
@@ -30613,7 +30613,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>74622.622499999794</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>4.1742770167427702E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>85511.485000000102</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>74612.639166666704</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>85511.485000000102</v>
       </c>
@@ -30783,7 +30783,7 @@
         <v>7.2678843226788399E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>74549.054999999993</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>84371.914166666698</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>74376.940833333298</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>84269.722500000003</v>
       </c>
@@ -30953,7 +30953,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>73944.641666666706</v>
       </c>
@@ -30970,7 +30970,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>84131.684999999998</v>
       </c>
@@ -31038,7 +31038,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>73654.680833333303</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>1.5601217656012101E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>83794.624166666603</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>73488.595000000001</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>82854.651666666701</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>72594.539999999994</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>81816.156666666604</v>
       </c>
@@ -31293,7 +31293,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>72057.545833333294</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>80024.840833333306</v>
       </c>
@@ -31378,7 +31378,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>71598.993333333303</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>3.7747336377473302E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>78991.559166666601</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>71258.552499992802</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>0.39644216133942101</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>78991.559166666601</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>3.3105022831050198E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>71035.231666666703</v>
       </c>
@@ -31565,7 +31565,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>74665.311666666705</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>68629.114166666695</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>74612.639166666704</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>68592.375833333295</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>74549.054999999993</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>68551.645000000004</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>74376.940833333298</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>68525.821666666801</v>
       </c>
@@ -31905,7 +31905,7 @@
         <v>3.5235920852359201E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>73944.641666666706</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>68423.808333333305</v>
       </c>
@@ -31990,7 +31990,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>73488.595000000001</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>68104.42</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>72594.539999999994</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>67763.854999999996</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>72057.545833333294</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>67092.850833333301</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>71035.231666666703</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>1.5791476407914699E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>66736.046666666603</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>68629.114166666695</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>66034.184166666601</v>
       </c>
@@ -32415,7 +32415,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>68592.375833333295</v>
       </c>
@@ -32483,7 +32483,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>65419.229999999901</v>
       </c>
@@ -32500,7 +32500,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>68551.645000000004</v>
       </c>
@@ -32568,7 +32568,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>65386.004999999997</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>68423.808333333305</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>65345.229166666599</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>68104.42</v>
       </c>
@@ -32738,7 +32738,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>65209.924999999901</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>67763.854999999996</v>
       </c>
@@ -32823,7 +32823,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>64928.695833333302</v>
       </c>
@@ -32840,7 +32840,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>67092.850833333301</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>64602.3999999999</v>
       </c>
@@ -32925,7 +32925,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>66736.046666666603</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>64393.157499999303</v>
       </c>
@@ -33010,7 +33010,7 @@
         <v>0.192142313546423</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>66034.184166666601</v>
       </c>
@@ -33078,7 +33078,7 @@
         <v>1.1415525114155201E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>64272.041666666802</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>3.1640030441400298E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>65419.229999999901</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>63983.9566666666</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>65386.004999999997</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>63637.485000000001</v>
       </c>
@@ -33265,7 +33265,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>65345.229166666599</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>62932.085833333302</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>65209.924999999901</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>62932.011666664599</v>
       </c>
@@ -33435,7 +33435,7 @@
         <v>0.35443302891932998</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>64928.695833333302</v>
       </c>
@@ -33503,7 +33503,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>53731.323333333203</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>7.4467275494672705E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>64602.3999999999</v>
       </c>
@@ -33588,7 +33588,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>52633.124999999898</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>5.81050228310502E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>63983.9566666666</v>
       </c>
@@ -33673,7 +33673,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>49019.484166666502</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>5.7543759512937498E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>63637.485000000001</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>1.0654490106544901E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>45721.421666666502</v>
       </c>
@@ -33775,7 +33775,7 @@
         <v>4.8011796042617898E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>62932.085833333302</v>
       </c>
@@ -33853,18 +33853,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34012,18 +34012,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039D89F-208C-43AA-82C3-0971EE665934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9BD3DCA-D1D7-4D47-8364-8494B52863C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9BD3DCA-D1D7-4D47-8364-8494B52863C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039D89F-208C-43AA-82C3-0971EE665934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
